--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H2">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.300788</v>
+        <v>0.04641433333333334</v>
       </c>
       <c r="N2">
-        <v>0.9023639999999999</v>
+        <v>0.139243</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1185678497650663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1185678497650663</v>
       </c>
       <c r="Q2">
-        <v>3.052914981986667</v>
+        <v>0.05057409418677779</v>
       </c>
       <c r="R2">
-        <v>27.47623483788</v>
+        <v>0.455166847681</v>
       </c>
       <c r="S2">
-        <v>0.4728485742924059</v>
+        <v>0.01074545940511784</v>
       </c>
       <c r="T2">
-        <v>0.4728485742924059</v>
+        <v>0.01074545940511784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.876575666666667</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H3">
-        <v>5.629727</v>
+        <v>3.268867</v>
       </c>
       <c r="I3">
-        <v>0.08742466167732858</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J3">
-        <v>0.08742466167732858</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.300788</v>
+        <v>0.06025633333333334</v>
       </c>
       <c r="N3">
-        <v>0.9023639999999999</v>
+        <v>0.180769</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1539279650264737</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1539279650264737</v>
       </c>
       <c r="Q3">
-        <v>0.5644514416253333</v>
+        <v>0.06565664652477779</v>
       </c>
       <c r="R3">
-        <v>5.080062974627999</v>
+        <v>0.5909098187230001</v>
       </c>
       <c r="S3">
-        <v>0.08742466167732858</v>
+        <v>0.01395004381695128</v>
       </c>
       <c r="T3">
-        <v>0.08742466167732858</v>
+        <v>0.01395004381695128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5985983333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H4">
-        <v>1.795795</v>
+        <v>3.268867</v>
       </c>
       <c r="I4">
-        <v>0.02788710186423574</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J4">
-        <v>0.02788710186423574</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300788</v>
+        <v>0.2847873333333333</v>
       </c>
       <c r="N4">
-        <v>0.9023639999999999</v>
+        <v>0.8543620000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7275041852084601</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7275041852084601</v>
       </c>
       <c r="Q4">
-        <v>0.1800511954866667</v>
+        <v>0.3103106386504445</v>
       </c>
       <c r="R4">
-        <v>1.62046075938</v>
+        <v>2.792795747854</v>
       </c>
       <c r="S4">
-        <v>0.02788710186423574</v>
+        <v>0.06593158857734528</v>
       </c>
       <c r="T4">
-        <v>0.02788710186423574</v>
+        <v>0.06593158857734528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,542 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.840163333333335</v>
+        <v>1.876575666666667</v>
       </c>
       <c r="H5">
-        <v>26.52049</v>
+        <v>5.629727</v>
       </c>
       <c r="I5">
-        <v>0.4118396621660297</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J5">
-        <v>0.4118396621660297</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.139243</v>
+      </c>
+      <c r="O5">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P5">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q5">
+        <v>0.08710000851788889</v>
+      </c>
+      <c r="R5">
+        <v>0.783900076661</v>
+      </c>
+      <c r="S5">
+        <v>0.01850610714366654</v>
+      </c>
+      <c r="T5">
+        <v>0.01850610714366654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.876575666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.629727</v>
+      </c>
+      <c r="I6">
+        <v>0.1560803133424032</v>
+      </c>
+      <c r="J6">
+        <v>0.1560803133424032</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.180769</v>
+      </c>
+      <c r="O6">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P6">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q6">
+        <v>0.1130755688958889</v>
+      </c>
+      <c r="R6">
+        <v>1.017680120063</v>
+      </c>
+      <c r="S6">
+        <v>0.0240251250134905</v>
+      </c>
+      <c r="T6">
+        <v>0.0240251250134905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.876575666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.629727</v>
+      </c>
+      <c r="I7">
+        <v>0.1560803133424032</v>
+      </c>
+      <c r="J7">
+        <v>0.1560803133424032</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.300788</v>
-      </c>
-      <c r="N5">
-        <v>0.9023639999999999</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2.659015048706667</v>
-      </c>
-      <c r="R5">
-        <v>23.93113543836</v>
-      </c>
-      <c r="S5">
-        <v>0.4118396621660297</v>
-      </c>
-      <c r="T5">
-        <v>0.4118396621660297</v>
+      <c r="M7">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P7">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q7">
+        <v>0.5344249799082222</v>
+      </c>
+      <c r="R7">
+        <v>4.809824819174001</v>
+      </c>
+      <c r="S7">
+        <v>0.1135490811852462</v>
+      </c>
+      <c r="T7">
+        <v>0.1135490811852462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6928603333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.078581</v>
+      </c>
+      <c r="I8">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="J8">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.139243</v>
+      </c>
+      <c r="O8">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P8">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q8">
+        <v>0.03215865046477778</v>
+      </c>
+      <c r="R8">
+        <v>0.289427854183</v>
+      </c>
+      <c r="S8">
+        <v>0.006832736772633833</v>
+      </c>
+      <c r="T8">
+        <v>0.006832736772633833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6928603333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.078581</v>
+      </c>
+      <c r="I9">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="J9">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.180769</v>
+      </c>
+      <c r="O9">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P9">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q9">
+        <v>0.04174922319877777</v>
+      </c>
+      <c r="R9">
+        <v>0.375743008789</v>
+      </c>
+      <c r="S9">
+        <v>0.008870442274672661</v>
+      </c>
+      <c r="T9">
+        <v>0.008870442274672661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6928603333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.078581</v>
+      </c>
+      <c r="I10">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="J10">
+        <v>0.05762723019918477</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P10">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q10">
+        <v>0.1973178467024444</v>
+      </c>
+      <c r="R10">
+        <v>1.775860620322</v>
+      </c>
+      <c r="S10">
+        <v>0.04192405115187828</v>
+      </c>
+      <c r="T10">
+        <v>0.04192405115187828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.364082999999999</v>
+      </c>
+      <c r="H11">
+        <v>25.092249</v>
+      </c>
+      <c r="I11">
+        <v>0.6956653646589975</v>
+      </c>
+      <c r="J11">
+        <v>0.6956653646589976</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.139243</v>
+      </c>
+      <c r="O11">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P11">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q11">
+        <v>0.3882133363896667</v>
+      </c>
+      <c r="R11">
+        <v>3.493920027507</v>
+      </c>
+      <c r="S11">
+        <v>0.08248354644364811</v>
+      </c>
+      <c r="T11">
+        <v>0.08248354644364812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.364082999999999</v>
+      </c>
+      <c r="H12">
+        <v>25.092249</v>
+      </c>
+      <c r="I12">
+        <v>0.6956653646589975</v>
+      </c>
+      <c r="J12">
+        <v>0.6956653646589976</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.180769</v>
+      </c>
+      <c r="O12">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P12">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q12">
+        <v>0.5039889732756666</v>
+      </c>
+      <c r="R12">
+        <v>4.535900759481</v>
+      </c>
+      <c r="S12">
+        <v>0.1070823539213592</v>
+      </c>
+      <c r="T12">
+        <v>0.1070823539213593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.364082999999999</v>
+      </c>
+      <c r="H13">
+        <v>25.092249</v>
+      </c>
+      <c r="I13">
+        <v>0.6956653646589975</v>
+      </c>
+      <c r="J13">
+        <v>0.6956653646589976</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P13">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q13">
+        <v>2.381984893348666</v>
+      </c>
+      <c r="R13">
+        <v>21.437864040138</v>
+      </c>
+      <c r="S13">
+        <v>0.5060994642939902</v>
+      </c>
+      <c r="T13">
+        <v>0.5060994642939903</v>
       </c>
     </row>
   </sheetData>
